--- a/combinatorial/combinatorial 테스트포맷.xlsx
+++ b/combinatorial/combinatorial 테스트포맷.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\연구와 레포지토리\vnv-team-3\combinatorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGGit\vnv-team-3\combinatorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435ECB01-C5C8-40B4-A189-E273C3FFA653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FA113D-054A-498D-82D6-C6F64CB433D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트케이스 포맷" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +45,33 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Raleway"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Raleway"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Raleway"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,8 +94,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -345,12 +392,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="C5:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="7" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:7">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="3:7">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -359,13 +825,620 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA991DCF-D0C7-493C-9A0A-83C276513055}">
-  <dimension ref="A1"/>
+  <dimension ref="C6:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="3" max="8" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:10">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="4"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="4"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="4"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="4"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="4"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="4"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" s="4"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="4"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" s="4"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="4"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" s="4"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" s="4"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" s="4"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" s="4"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42" s="4"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43" s="4"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44" s="4"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46" s="4"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47" s="4"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48" s="4"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" s="4"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" s="4"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51" s="4"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="C52" s="4"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53" s="4"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54" s="4"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="C55" s="4"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="C56" s="4"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="3:10">
+      <c r="C57" s="4"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="C58" s="4"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="C59" s="4"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="C60" s="4"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="C61" s="4"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="C62" s="4"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="C63" s="4"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="C64" s="4"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="3:10">
+      <c r="C65" s="4"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="5"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>